--- a/results/energy.xlsx
+++ b/results/energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA090F-D6C5-764E-8DAB-0FAE4E4AEB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD21505-7693-FD4C-8F5F-9253720E8191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-39740" yWindow="-260" windowWidth="28040" windowHeight="17220" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
